--- a/profit-expense.xlsx
+++ b/profit-expense.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10/Jan/2024</t>
+          <t>20/Jan/2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="C3">
         <f>B3</f>
@@ -468,11 +468,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/Jan/2024</t>
+          <t>17/Jan/2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <f>C3+B4</f>
@@ -482,11 +482,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/Jan/2024</t>
+          <t>10/Jan/2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C5">
         <f>C4+B5</f>
@@ -496,11 +496,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/Jan/2024</t>
+          <t>07/Jan/2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <f>C5+B6</f>
@@ -510,11 +510,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/Jan/2024</t>
+          <t>06/Jan/2024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225</v>
+        <v>600</v>
       </c>
       <c r="C7">
         <f>C6+B7</f>
@@ -524,11 +524,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/Jan/2024</t>
+          <t>05/Jan/2024</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <f>C7+B8</f>
@@ -538,11 +538,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02/Jan/2024</t>
+          <t>05/Jan/2024</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="C9">
         <f>C8+B9</f>
@@ -552,11 +552,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/Jan/2024</t>
+          <t>03/Jan/2024</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C10">
         <f>C9+B10</f>
@@ -566,7 +566,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/Jan/2024</t>
+          <t>02/Jan/2024</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -580,7 +580,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>29/Dec/2023</t>
+          <t>01/Jan/2024</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -594,11 +594,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26/Dec/2023</t>
+          <t>01/Jan/2024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C13">
         <f>C12+B13</f>
@@ -608,11 +608,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23/Dec/2023</t>
+          <t>29/Dec/2023</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <f>C13+B14</f>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09/Dec/2023</t>
+          <t>26/Dec/2023</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <f>C14+B15</f>
@@ -636,11 +636,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08/Dec/2023</t>
+          <t>23/Dec/2023</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="C16">
         <f>C15+B16</f>
@@ -650,11 +650,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15/Jan/2023</t>
+          <t>09/Dec/2023</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-250</v>
+        <v>1000</v>
       </c>
       <c r="C17">
         <f>C16+B17</f>
@@ -664,11 +664,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12/Apr/2023</t>
+          <t>08/Dec/2023</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-150</v>
+        <v>1050</v>
       </c>
       <c r="C18">
         <f>C17+B18</f>
@@ -678,7 +678,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10/Jan/2024</t>
+          <t>15/Jan/2023</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -692,11 +692,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10/Jan/2024</t>
+          <t>12/Apr/2023</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="C20">
         <f>C19+B20</f>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-150</v>
+        <v>-250</v>
       </c>
       <c r="C21">
         <f>C20+B21</f>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-150</v>
+        <v>-250</v>
       </c>
       <c r="C22">
         <f>C21+B22</f>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="C23">
         <f>C22+B23</f>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="C24">
         <f>C23+B24</f>
@@ -798,6 +798,34 @@
       </c>
       <c r="C27">
         <f>C26+B27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/Jan/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-250</v>
+      </c>
+      <c r="C28">
+        <f>C27+B28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/Jan/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-250</v>
+      </c>
+      <c r="C29">
+        <f>C28+B29</f>
         <v/>
       </c>
     </row>
